--- a/data/cvars.xlsx
+++ b/data/cvars.xlsx
@@ -441,14 +441,14 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Var</t>
+          <t>Cvar</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CELZ</t>
+          <t>QUBT</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -458,111 +458,111 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>QUBT</t>
+          <t>SHV</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0.0003752673526208875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SHV</t>
+          <t>FTSM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0002713195366528204</v>
+        <v>-0.001007281429151546</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FTSM</t>
+          <t>IGSB</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.000668885697676158</v>
+        <v>-0.001172561678769398</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IGSB</t>
+          <t>VCSH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0009438902681819481</v>
+        <v>-0.002422153660278543</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VCSH</t>
+          <t>FTSL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.001612208280266327</v>
+        <v>-0.003499049911382547</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FTSL</t>
+          <t>HYLS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.001654047282036733</v>
+        <v>-0.006737485148612817</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HYLS</t>
+          <t>ANGL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.004561861162999947</v>
+        <v>-0.01104135832698492</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ANGL</t>
+          <t>FXNC</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.005871941221201733</v>
+        <v>-0.01546197173892366</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FXNC</t>
+          <t>BWFG</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.009331088083065792</v>
+        <v>-0.02284582192673273</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BWFG</t>
+          <t>TSBK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01402782886739063</v>
+        <v>-0.02493578839095931</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TSBK</t>
+          <t>TTEK</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01708317085854051</v>
+        <v>-0.02569401009648308</v>
       </c>
     </row>
     <row r="14">
@@ -572,47 +572,47 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01765917608443157</v>
+        <v>-0.0286302707622726</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TTEK</t>
+          <t>SYBT</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01799066178782574</v>
+        <v>-0.03024000542938201</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SAIC</t>
+          <t>CASH</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02178361354215717</v>
+        <v>-0.03243741869320498</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SYBT</t>
+          <t>SAIC</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02182431253363526</v>
+        <v>-0.03357937582643929</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>RMR</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02219799381955045</v>
+        <v>-0.04077321484197263</v>
       </c>
     </row>
     <row r="19">
@@ -622,77 +622,77 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02670131103777882</v>
+        <v>-0.04275900932756955</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RMR</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.0273637818389782</v>
+        <v>-0.05158922218600135</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>AKTS</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.03180408303545163</v>
+        <v>-0.06715272869669793</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AKTS</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.05504304703643687</v>
+        <v>-0.08942264530168675</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>ACB</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.06543461977108796</v>
+        <v>-0.104539671078558</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ACB</t>
+          <t>CRBP</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.07598595594707848</v>
+        <v>-0.1281554298672196</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CRBP</t>
+          <t>BCDA</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.0891277798960074</v>
+        <v>-0.159729199856111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCDA</t>
+          <t>CELZ</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1177830094924802</v>
+        <v>-0.1906098017386048</v>
       </c>
     </row>
   </sheetData>

--- a/data/cvars.xlsx
+++ b/data/cvars.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,250 +448,240 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>QUBT</t>
+          <t>SHV</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0.0003752673526208875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SHV</t>
+          <t>FTSM</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.0003752673526208875</v>
+        <v>-0.001007281429151546</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FTSM</t>
+          <t>IGSB</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.001007281429151546</v>
+        <v>-0.001172561678769398</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IGSB</t>
+          <t>VCSH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001172561678769398</v>
+        <v>-0.002422153660278543</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VCSH</t>
+          <t>FTSL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.002422153660278543</v>
+        <v>-0.003499049911382547</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FTSL</t>
+          <t>HYLS</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.003499049911382547</v>
+        <v>-0.006737485148612817</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HYLS</t>
+          <t>ANGL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.006737485148612817</v>
+        <v>-0.01104135832698492</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ANGL</t>
+          <t>FXNC</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01104135832698492</v>
+        <v>-0.01546197173892366</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FXNC</t>
+          <t>BWFG</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01546197173892366</v>
+        <v>-0.02284582192673273</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BWFG</t>
+          <t>TSBK</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02284582192673273</v>
+        <v>-0.02493578839095931</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TSBK</t>
+          <t>TTEK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02493578839095931</v>
+        <v>-0.02569401009648308</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TTEK</t>
+          <t>PEBO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02569401009648308</v>
+        <v>-0.0286302707622726</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PEBO</t>
+          <t>SYBT</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0286302707622726</v>
+        <v>-0.03024000542938201</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SYBT</t>
+          <t>CASH</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03024000542938201</v>
+        <v>-0.03243741869320498</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CASH</t>
+          <t>SAIC</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.03243741869320498</v>
+        <v>-0.03357937582643929</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SAIC</t>
+          <t>RMR</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.03357937582643929</v>
+        <v>-0.04077321484197263</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RMR</t>
+          <t>AEIS</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.04077321484197263</v>
+        <v>-0.04275900932756955</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AEIS</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.04275900932756955</v>
+        <v>-0.05158922218600135</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>AKTS</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.05158922218600135</v>
+        <v>-0.06715272869669793</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AKTS</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.06715272869669793</v>
+        <v>-0.08942264530168675</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>ACB</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.08942264530168675</v>
+        <v>-0.104539671078558</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ACB</t>
+          <t>CRBP</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.104539671078558</v>
+        <v>-0.1281554298672196</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CRBP</t>
+          <t>BCDA</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.1281554298672196</v>
+        <v>-0.159729199856111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCDA</t>
+          <t>CELZ</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.159729199856111</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>CELZ</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
         <v>-0.1906098017386048</v>
       </c>
     </row>
